--- a/data/trans_orig/P16B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7CBBB91-8B85-4BBD-9D67-76251DE235A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51FA365-C05C-47A3-9CAC-8B1649EB72F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD295EC6-0F5C-4343-9C50-50B27B3A1801}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6774313C-C2C3-4284-B633-05E91AD8614E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="157">
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2007 (Tasa respuesta: 4,02%)</t>
   </si>
@@ -148,7 +148,7 @@
     <t>93,44%</t>
   </si>
   <si>
-    <t>78,73%</t>
+    <t>78,29%</t>
   </si>
   <si>
     <t>94,7%</t>
@@ -157,13 +157,13 @@
     <t>97,07%</t>
   </si>
   <si>
-    <t>89,89%</t>
+    <t>88,61%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>21,27%</t>
+    <t>21,71%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -172,7 +172,7 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>10,11%</t>
+    <t>11,39%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -181,19 +181,19 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>92,38%</t>
+    <t>92,69%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>92,15%</t>
+    <t>93,08%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>94,87%</t>
+    <t>94,32%</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -202,13 +202,13 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>7,62%</t>
+    <t>7,31%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>7,85%</t>
+    <t>6,92%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -217,13 +217,13 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>5,13%</t>
+    <t>5,68%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>91,75%</t>
+    <t>92,45%</t>
   </si>
   <si>
     <t>99,15%</t>
@@ -232,7 +232,7 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>95,68%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>98,13%</t>
@@ -250,13 +250,13 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>8,25%</t>
+    <t>7,55%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,32%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>1,87%</t>
@@ -286,13 +286,13 @@
     <t>92,96%</t>
   </si>
   <si>
-    <t>65,84%</t>
+    <t>69,91%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>71,86%</t>
+    <t>75,81%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -301,13 +301,13 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>34,16%</t>
+    <t>30,09%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>28,14%</t>
+    <t>24,19%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -316,13 +316,13 @@
     <t>97,44%</t>
   </si>
   <si>
-    <t>86,66%</t>
+    <t>87,02%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>91,83%</t>
+    <t>88,25%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -331,13 +331,13 @@
     <t>2,56%</t>
   </si>
   <si>
-    <t>13,34%</t>
+    <t>12,98%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>8,17%</t>
+    <t>11,75%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -346,13 +346,13 @@
     <t>99,29%</t>
   </si>
   <si>
-    <t>97,1%</t>
+    <t>96,42%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,11%</t>
+    <t>97,36%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -361,13 +361,13 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,89%</t>
+    <t>2,64%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -376,13 +376,16 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>95,87%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,51%</t>
+    <t>96,91%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -394,7 +397,10 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>4,13%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -403,7 +409,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,49%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2015 (Tasa respuesta: 2,48%)</t>
@@ -424,25 +430,25 @@
     <t>90,4%</t>
   </si>
   <si>
-    <t>64,72%</t>
+    <t>56,68%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>69,28%</t>
+    <t>65,54%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>35,28%</t>
+    <t>43,32%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>30,72%</t>
+    <t>34,46%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -481,13 +487,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,46%</t>
+    <t>93,51%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,31%</t>
+    <t>95,48%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -496,13 +502,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,54%</t>
+    <t>6,49%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,69%</t>
+    <t>4,52%</t>
   </si>
 </sst>
 </file>
@@ -914,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D130FA1B-E702-4A73-AAE1-CDA2A4B61C82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A56F62-2E5B-4945-A8FD-77B9B3166CB5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2109,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43910456-3284-4634-AE1F-2553BFDA436E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7310E3-5DF1-4E79-BE0C-4F092E2F0D6F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3172,7 +3178,7 @@
         <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>250</v>
@@ -3181,13 +3187,13 @@
         <v>272799</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3214,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3217,13 +3223,13 @@
         <v>3182</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3232,13 +3238,13 @@
         <v>3182</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B662785B-FC28-4244-9FF6-A2DB8008B1FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FB8F65-71BC-42EB-97BA-D8FD7001E6C4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3333,7 +3339,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3744,7 +3750,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3759,7 +3765,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3798,7 +3804,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3813,7 +3819,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,10 +3902,10 @@
         <v>16494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3911,10 +3917,10 @@
         <v>19774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3947,13 +3953,13 @@
         <v>1753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3962,13 +3968,13 @@
         <v>1753</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,7 +4060,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -4069,7 +4075,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -4108,7 +4114,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4123,7 +4129,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,7 +4200,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -4209,7 +4215,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -4224,7 +4230,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4248,7 +4254,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4263,7 +4269,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4278,7 +4284,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,7 +4355,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -4361,10 +4367,10 @@
         <v>130554</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -4376,10 +4382,10 @@
         <v>175749</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -4403,7 +4409,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4412,13 +4418,13 @@
         <v>1753</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -4427,13 +4433,13 @@
         <v>1753</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E51FA365-C05C-47A3-9CAC-8B1649EB72F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38EDD340-4243-4F4C-AF3C-78534AC39A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6774313C-C2C3-4284-B633-05E91AD8614E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2EDF2F3-75ED-4A7D-AF4D-DD65BB6ED98D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -148,7 +148,7 @@
     <t>93,44%</t>
   </si>
   <si>
-    <t>78,29%</t>
+    <t>78,53%</t>
   </si>
   <si>
     <t>94,7%</t>
@@ -157,13 +157,13 @@
     <t>97,07%</t>
   </si>
   <si>
-    <t>88,61%</t>
+    <t>90,23%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>21,71%</t>
+    <t>21,47%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -172,7 +172,7 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>11,39%</t>
+    <t>9,77%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -181,91 +181,91 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>92,69%</t>
+    <t>92,35%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>93,08%</t>
+    <t>93,21%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>7,31%</t>
+    <t>7,65%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>6,92%</t>
+    <t>6,79%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>95,45%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -286,13 +286,13 @@
     <t>92,96%</t>
   </si>
   <si>
-    <t>69,91%</t>
+    <t>71,74%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>75,81%</t>
+    <t>75,19%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -301,13 +301,13 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>30,09%</t>
+    <t>28,26%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>24,19%</t>
+    <t>24,81%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -316,13 +316,13 @@
     <t>97,44%</t>
   </si>
   <si>
-    <t>87,02%</t>
+    <t>87,12%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>88,25%</t>
+    <t>90,2%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -331,13 +331,13 @@
     <t>2,56%</t>
   </si>
   <si>
-    <t>12,98%</t>
+    <t>12,88%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>11,75%</t>
+    <t>9,8%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -346,13 +346,13 @@
     <t>99,29%</t>
   </si>
   <si>
-    <t>96,42%</t>
+    <t>95,51%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,36%</t>
+    <t>96,59%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -361,13 +361,13 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,64%</t>
+    <t>3,41%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -376,7 +376,7 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>95,83%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>99,52%</t>
@@ -385,7 +385,7 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,91%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -400,7 +400,7 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>4,17%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -409,10 +409,10 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para el reuma recetados en 2015 (Tasa respuesta: 2,48%)</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -430,25 +430,25 @@
     <t>90,4%</t>
   </si>
   <si>
-    <t>56,68%</t>
+    <t>57,51%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>65,54%</t>
+    <t>69,62%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>43,32%</t>
+    <t>42,49%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>34,46%</t>
+    <t>30,38%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -487,13 +487,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,51%</t>
+    <t>93,26%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>95,48%</t>
+    <t>94,13%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -502,13 +502,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,49%</t>
+    <t>6,74%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>4,52%</t>
+    <t>5,87%</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A56F62-2E5B-4945-A8FD-77B9B3166CB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00940BC-4B32-4FBB-B1D3-CE757C829907}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2115,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7310E3-5DF1-4E79-BE0C-4F092E2F0D6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31237549-2000-4C80-B994-D9DB9F8D2F48}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3322,7 +3322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FB8F65-71BC-42EB-97BA-D8FD7001E6C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DC483-ACC1-4A4B-82F4-3A4148A39F77}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38EDD340-4243-4F4C-AF3C-78534AC39A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABAF8455-423F-44D3-9CE8-E34228912872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2EDF2F3-75ED-4A7D-AF4D-DD65BB6ED98D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F652CECF-7F00-4DDB-90AC-8E9C8BD68386}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="155">
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2007 (Tasa respuesta: 4,02%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -148,7 +148,7 @@
     <t>93,44%</t>
   </si>
   <si>
-    <t>78,53%</t>
+    <t>78,73%</t>
   </si>
   <si>
     <t>94,7%</t>
@@ -157,13 +157,13 @@
     <t>97,07%</t>
   </si>
   <si>
-    <t>90,23%</t>
+    <t>89,89%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>21,47%</t>
+    <t>21,27%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -172,7 +172,7 @@
     <t>2,93%</t>
   </si>
   <si>
-    <t>9,77%</t>
+    <t>10,11%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -181,91 +181,91 @@
     <t>98,52%</t>
   </si>
   <si>
-    <t>92,35%</t>
+    <t>92,38%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>93,21%</t>
+    <t>92,15%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>7,65%</t>
+    <t>7,62%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>6,79%</t>
+    <t>7,85%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>95,45%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -286,13 +286,13 @@
     <t>92,96%</t>
   </si>
   <si>
-    <t>71,74%</t>
+    <t>65,84%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>75,19%</t>
+    <t>71,86%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -301,13 +301,13 @@
     <t>7,04%</t>
   </si>
   <si>
-    <t>28,26%</t>
+    <t>34,16%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>24,81%</t>
+    <t>28,14%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -316,13 +316,13 @@
     <t>97,44%</t>
   </si>
   <si>
-    <t>87,12%</t>
+    <t>86,66%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>90,2%</t>
+    <t>91,83%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -331,13 +331,13 @@
     <t>2,56%</t>
   </si>
   <si>
-    <t>12,88%</t>
+    <t>13,34%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>9,8%</t>
+    <t>8,17%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -346,13 +346,13 @@
     <t>99,29%</t>
   </si>
   <si>
-    <t>95,51%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>96,59%</t>
+    <t>97,11%</t>
   </si>
   <si>
     <t>4,34%</t>
@@ -361,13 +361,13 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>2,9%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>3,41%</t>
+    <t>2,89%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -376,16 +376,13 @@
     <t>98,46%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>95,87%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>96,89%</t>
+    <t>96,51%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -397,10 +394,7 @@
     <t>1,54%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>1,15%</t>
@@ -409,7 +403,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2016 (Tasa respuesta: 2,48%)</t>
@@ -430,25 +424,25 @@
     <t>90,4%</t>
   </si>
   <si>
-    <t>57,51%</t>
+    <t>64,72%</t>
   </si>
   <si>
     <t>91,86%</t>
   </si>
   <si>
-    <t>69,62%</t>
+    <t>69,28%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>42,49%</t>
+    <t>35,28%</t>
   </si>
   <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>30,38%</t>
+    <t>30,72%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -487,13 +481,13 @@
     <t>98,68%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>93,46%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>94,13%</t>
+    <t>94,31%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -502,13 +496,13 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>6,74%</t>
+    <t>6,54%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>5,87%</t>
+    <t>5,69%</t>
   </si>
 </sst>
 </file>
@@ -920,7 +914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00940BC-4B32-4FBB-B1D3-CE757C829907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA9A06-A885-4502-89F6-73ADFB273016}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2115,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31237549-2000-4C80-B994-D9DB9F8D2F48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF20AA9-1EA1-4610-B5E6-85430ACD951C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3178,7 +3172,7 @@
         <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="M22" s="7">
         <v>250</v>
@@ -3187,13 +3181,13 @@
         <v>272799</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3223,13 +3217,13 @@
         <v>3182</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3238,13 +3232,13 @@
         <v>3182</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,7 +3316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537DC483-ACC1-4A4B-82F4-3A4148A39F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F0DC4-18E3-48C4-B143-2B244A034FF3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3339,7 +3333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3750,7 +3744,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3765,7 +3759,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3804,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3819,7 +3813,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3902,10 +3896,10 @@
         <v>16494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3917,10 +3911,10 @@
         <v>19774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3953,13 +3947,13 @@
         <v>1753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3968,13 +3962,13 @@
         <v>1753</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,7 +4054,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -4075,7 +4069,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -4114,7 +4108,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4129,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,7 +4194,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -4215,7 +4209,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -4230,7 +4224,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4254,7 +4248,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4269,7 +4263,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4284,7 +4278,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,7 +4349,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -4367,10 +4361,10 @@
         <v>130554</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -4382,10 +4376,10 @@
         <v>175749</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -4409,7 +4403,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4418,13 +4412,13 @@
         <v>1753</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -4433,13 +4427,13 @@
         <v>1753</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16B09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABAF8455-423F-44D3-9CE8-E34228912872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9A7938-B4E1-47EA-9F0D-8C209BC1A987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F652CECF-7F00-4DDB-90AC-8E9C8BD68386}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{13CEBABB-153B-44D9-8047-FC5873C1A4F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="174">
   <si>
     <t>Porcentajes de medicamentos para el reuma recetados en 2007 (Tasa respuesta: 4,02%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,7 +79,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -112,7 +112,7 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -121,7 +121,7 @@
     <t>23,25%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -142,7 +142,7 @@
     <t>8,27%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>93,44%</t>
@@ -175,225 +175,270 @@
     <t>10,11%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicamentos para el reuma recetados en 2012 (Tasa respuesta: 3,89%)</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>94,87%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicamentos para el reuma recetados en 2012 (Tasa respuesta: 3,89%)</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
     <t>4,13%</t>
   </si>
   <si>
@@ -457,30 +502,45 @@
     <t>5,78%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>98,68%</t>
-  </si>
-  <si>
     <t>93,46%</t>
   </si>
   <si>
@@ -491,9 +551,6 @@
   </si>
   <si>
     <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
   </si>
   <si>
     <t>6,54%</t>
@@ -914,8 +971,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CA9A06-A885-4502-89F6-73ADFB273016}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4D3025-F995-4972-A0EA-64CF37B17654}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1783,49 +1840,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>54521</v>
+        <v>17532</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="7">
+        <v>56</v>
+      </c>
+      <c r="I19" s="7">
+        <v>52215</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="7">
-        <v>105</v>
-      </c>
-      <c r="I19" s="7">
-        <v>108967</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="7">
+        <v>75</v>
+      </c>
+      <c r="N19" s="7">
+        <v>69746</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>164</v>
-      </c>
-      <c r="N19" s="7">
-        <v>163488</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1834,49 +1891,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
-        <v>819</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>931</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>931</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2251</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3070</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,10 +1942,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D21" s="7">
-        <v>55340</v>
+        <v>17532</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>16</v>
@@ -1900,10 +1957,10 @@
         <v>16</v>
       </c>
       <c r="H21" s="7">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="I21" s="7">
-        <v>111218</v>
+        <v>53146</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>16</v>
@@ -1915,10 +1972,10 @@
         <v>16</v>
       </c>
       <c r="M21" s="7">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="N21" s="7">
-        <v>166558</v>
+        <v>70677</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>16</v>
@@ -1932,55 +1989,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>92562</v>
+        <v>36989</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="7">
+        <v>49</v>
+      </c>
+      <c r="I22" s="7">
+        <v>56753</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M22" s="7">
+        <v>89</v>
+      </c>
+      <c r="N22" s="7">
+        <v>93741</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="7">
-        <v>162</v>
-      </c>
-      <c r="I22" s="7">
-        <v>169281</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="7">
-        <v>257</v>
-      </c>
-      <c r="N22" s="7">
-        <v>261843</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,49 +2046,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>2730</v>
+        <v>819</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1320</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2139</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2251</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" s="7">
-        <v>5</v>
-      </c>
-      <c r="N23" s="7">
-        <v>4981</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,63 +2097,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7">
+        <v>37808</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="7">
+        <v>50</v>
+      </c>
+      <c r="I24" s="7">
+        <v>58073</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="7">
+        <v>91</v>
+      </c>
+      <c r="N24" s="7">
+        <v>95880</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>95</v>
+      </c>
+      <c r="D25" s="7">
+        <v>92562</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="7">
+        <v>162</v>
+      </c>
+      <c r="I25" s="7">
+        <v>169281</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="7">
+        <v>257</v>
+      </c>
+      <c r="N25" s="7">
+        <v>261843</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2730</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2251</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4981</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>98</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>95292</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="7">
         <v>164</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>171532</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="7">
         <v>262</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>266824</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>76</v>
+      <c r="O27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2109,8 +2322,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF20AA9-1EA1-4610-B5E6-85430ACD951C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABE3646-E790-4902-AAAB-1FECCE75D99F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2126,7 +2339,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2564,7 +2777,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2618,7 +2831,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,7 +2902,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2701,10 +2914,10 @@
         <v>15050</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -2716,10 +2929,10 @@
         <v>21265</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -2743,7 +2956,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2752,13 +2965,13 @@
         <v>1140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2767,13 +2980,13 @@
         <v>1140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,7 +3057,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2856,10 +3069,10 @@
         <v>39747</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -2871,10 +3084,10 @@
         <v>51556</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -2898,7 +3111,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2907,13 +3120,13 @@
         <v>1042</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2922,13 +3135,13 @@
         <v>1043</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,46 +3203,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>48468</v>
+        <v>14472</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="I19" s="7">
-        <v>139471</v>
+        <v>53346</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="N19" s="7">
-        <v>187940</v>
+        <v>67818</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3053,7 +3266,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3062,13 +3275,13 @@
         <v>999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3077,13 +3290,13 @@
         <v>999</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,10 +3305,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7">
-        <v>48468</v>
+        <v>14472</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>16</v>
@@ -3107,10 +3320,10 @@
         <v>16</v>
       </c>
       <c r="H21" s="7">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="I21" s="7">
-        <v>140470</v>
+        <v>54345</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>16</v>
@@ -3122,10 +3335,10 @@
         <v>16</v>
       </c>
       <c r="M21" s="7">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="N21" s="7">
-        <v>188939</v>
+        <v>68817</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>16</v>
@@ -3139,55 +3352,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>69463</v>
+        <v>33996</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="7">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="I22" s="7">
-        <v>203337</v>
+        <v>86125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M22" s="7">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="N22" s="7">
-        <v>272799</v>
+        <v>120121</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,37 +3421,37 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>3182</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>3182</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,63 +3460,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7">
+        <v>33996</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="7">
+        <v>78</v>
+      </c>
+      <c r="I24" s="7">
+        <v>86125</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="7">
+        <v>108</v>
+      </c>
+      <c r="N24" s="7">
+        <v>120121</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>62</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>69463</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="7">
+        <v>188</v>
+      </c>
+      <c r="I25" s="7">
+        <v>203337</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="7">
+        <v>250</v>
+      </c>
+      <c r="N25" s="7">
+        <v>272799</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3182</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3182</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>62</v>
+      </c>
+      <c r="D27" s="7">
+        <v>69463</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="7">
         <v>191</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>206519</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="7">
         <v>253</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>275981</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>76</v>
+      <c r="O27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3316,8 +3685,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F0DC4-18E3-48C4-B143-2B244A034FF3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1ECD049-299B-4F94-9A7A-F2149A86B2CA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3333,7 +3702,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3744,7 +4113,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3759,7 +4128,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3798,7 +4167,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3813,7 +4182,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,10 +4265,10 @@
         <v>16494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3911,10 +4280,10 @@
         <v>19774</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3947,13 +4316,13 @@
         <v>1753</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3962,13 +4331,13 @@
         <v>1753</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,7 +4408,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -4054,7 +4423,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -4069,7 +4438,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -4093,7 +4462,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4108,7 +4477,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4123,7 +4492,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,46 +4554,46 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>29502</v>
+        <v>9945</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>81691</v>
+        <v>35019</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="N19" s="7">
-        <v>111193</v>
+        <v>44964</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -4248,7 +4617,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4263,7 +4632,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4278,7 +4647,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>29502</v>
+        <v>9945</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>16</v>
@@ -4302,10 +4671,10 @@
         <v>16</v>
       </c>
       <c r="H21" s="7">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I21" s="7">
-        <v>81691</v>
+        <v>35019</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>16</v>
@@ -4317,10 +4686,10 @@
         <v>16</v>
       </c>
       <c r="M21" s="7">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="N21" s="7">
-        <v>111193</v>
+        <v>44964</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>16</v>
@@ -4334,55 +4703,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>45195</v>
+        <v>19556</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="7">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>130554</v>
+        <v>46673</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M22" s="7">
+        <v>60</v>
+      </c>
+      <c r="N22" s="7">
+        <v>66229</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="N22" s="7">
-        <v>175749</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,37 +4772,37 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,63 +4811,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19556</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="7">
+        <v>37</v>
+      </c>
+      <c r="I24" s="7">
+        <v>46673</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="7">
+        <v>60</v>
+      </c>
+      <c r="N24" s="7">
+        <v>66229</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
         <v>46</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>45195</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="7">
+        <v>116</v>
+      </c>
+      <c r="I25" s="7">
+        <v>130554</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="7">
+        <v>162</v>
+      </c>
+      <c r="N25" s="7">
+        <v>175749</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1753</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1753</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>46</v>
+      </c>
+      <c r="D27" s="7">
+        <v>45195</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="7">
         <v>117</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>132307</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="7">
         <v>163</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>177502</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>76</v>
+      <c r="O27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
